--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1163151.65269949</v>
+        <v>1160591.468539625</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673411</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>198.1396276091177</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>137.4928827571249</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>26.30660220273212</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,10 +832,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.94563726208596</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>233.8447291789209</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>182.4922801853899</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>38.12425262953737</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>210.9400909091308</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>266.7331670745518</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>259.658084792058</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542813</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>85.36610313819172</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.0743536402401</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>289.5687166806771</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203237998</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>236.7363230500594</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458122</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035096</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.94557435830872</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034029</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146325</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>68.04002157063901</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672547</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>335.9464125187635</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>89.534082237451</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>56.11174229723508</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187888</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.23631477519741</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>97.02629574295564</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>145.6229551553996</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>241.1435815093815</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701343</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>40.57972681915276</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>70.58974991479201</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.82863813027208</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670952</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.372291733706</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>55.52079624060497</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695481</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>60.11729550773468</v>
+        <v>178.9060413124618</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>100.3801551430677</v>
+        <v>115.9451354278031</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444142</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819357</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>55.52079624060579</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>280.2749679003648</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.739488336033</v>
+        <v>1452.155307492517</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.776971395621</v>
+        <v>1083.192790552105</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.511272788871</v>
+        <v>1083.192790552105</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1083.192790552105</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>672.2068857624974</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>256.5021354867863</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4410,22 +4410,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>1612.258607688552</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>1114.255484944676</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D5" t="n">
-        <v>684.9061825519796</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>299.1179299537353</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
         <v>62.91113280331017</v>
@@ -4565,16 +4565,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2253.304484375727</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2253.304484375727</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1922.241597032156</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1569.472941762042</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>1569.472941762042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163263</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.9684409159563</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8408313751036</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1298.724619659499</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1298.724619659499</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1044.040131453612</v>
+        <v>1423.375321176386</v>
       </c>
       <c r="W7" t="n">
-        <v>754.622961416651</v>
+        <v>1133.958151139425</v>
       </c>
       <c r="X7" t="n">
-        <v>526.6334105186337</v>
+        <v>905.9686002414077</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8408313751036</v>
+        <v>685.1760210978775</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.676600992463</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.714084052052</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.448385445301</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="E8" t="n">
-        <v>731.660132847057</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="F8" t="n">
-        <v>320.6742280574494</v>
+        <v>325.1920265326617</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>313.5276802973547</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056585</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2231.276441056585</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625334</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938517</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>716.5983551657494</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>547.6621722378425</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>397.5455328255067</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>249.6324392431136</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>102.7424917452032</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1550.217733066223</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1550.217733066223</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1295.533244860336</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>898.2468199959891</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1951.316839436114</v>
+        <v>2332.418671408905</v>
       </c>
       <c r="C11" t="n">
-        <v>1582.354322495702</v>
+        <v>1963.456154468493</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>1605.190455861743</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>1219.402203263498</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078501</v>
+        <v>808.4162984738906</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>393.8408528035376</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469185</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469202</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>704.5155104420346</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301228</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878115</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765431</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.226377687108</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856291</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.93756388225</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234601</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455662</v>
+        <v>3925.553311234601</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971442</v>
+        <v>3721.751200750382</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.29530560405</v>
+        <v>3721.751200750382</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260479</v>
+        <v>3721.751200750382</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990365</v>
+        <v>3482.623601709918</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729285</v>
+        <v>3109.157843448838</v>
       </c>
       <c r="Y11" t="n">
-        <v>2311.998004729285</v>
+        <v>2719.018511473027</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.3627498550305</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469202</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792134</v>
       </c>
       <c r="K12" t="n">
-        <v>247.739924445031</v>
+        <v>417.0976040972303</v>
       </c>
       <c r="L12" t="n">
-        <v>671.0277318723406</v>
+        <v>840.3854115245408</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.34150611623</v>
+        <v>1353.699185768431</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467297</v>
+        <v>1895.007493119499</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333046</v>
+        <v>2367.979045985249</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2367.979045985249</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.2232755143372</v>
+        <v>1094.703173037794</v>
       </c>
       <c r="C13" t="n">
-        <v>758.2870925864303</v>
+        <v>925.7669901098876</v>
       </c>
       <c r="D13" t="n">
-        <v>608.1704531740945</v>
+        <v>775.6503506975519</v>
       </c>
       <c r="E13" t="n">
-        <v>460.2573595917014</v>
+        <v>627.7372571151587</v>
       </c>
       <c r="F13" t="n">
-        <v>313.3674120937911</v>
+        <v>480.8473096172484</v>
       </c>
       <c r="G13" t="n">
         <v>313.3674120937911</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>169.1323565987731</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469202</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600404</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.4550473457707</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715851</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082524</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551108</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014276</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014276</v>
       </c>
       <c r="T13" t="n">
-        <v>2076.102739014274</v>
+        <v>1855.288681564322</v>
       </c>
       <c r="U13" t="n">
-        <v>1787.012032454562</v>
+        <v>1855.288681564322</v>
       </c>
       <c r="V13" t="n">
-        <v>1532.327544248675</v>
+        <v>1855.288681564322</v>
       </c>
       <c r="W13" t="n">
-        <v>1242.910374211714</v>
+        <v>1565.871511527361</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.910374211714</v>
+        <v>1497.144217011564</v>
       </c>
       <c r="Y13" t="n">
-        <v>1022.117795068184</v>
+        <v>1276.351637868034</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>328.4394675364389</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
         <v>841.9378825128761</v>
@@ -5297,7 +5297,7 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5321,7 +5321,7 @@
         <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>141.6400447072585</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.5402036081955</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>679.6040206802886</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>529.4873812679527</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="E16" t="n">
-        <v>381.5742876855595</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876492</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876492</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608056</v>
@@ -5434,13 +5434,13 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2303.837901795704</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2084.159119510086</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1795.082905824813</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.398417618926</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1250.981247581965</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.981247581965</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1030.188668438435</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,49 +5513,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.9555321712451</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433382</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310024</v>
+        <v>481.4479471244856</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310024</v>
+        <v>333.5348535420926</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>333.5348535420927</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>549.6145409888036</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>549.6145409888036</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888036</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888036</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
@@ -5920,10 +5920,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2232.8234857363</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U22" t="n">
-        <v>2227.361618603202</v>
+        <v>1724.146794103438</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.677130397315</v>
+        <v>1469.462305897551</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>952.0555849625734</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>731.2630058190433</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,22 +5990,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6069,25 +6069,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>315.9123021921482</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536376</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257307</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133949</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310019</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330918</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868272</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662385</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727407</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583877</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,19 +6245,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>991.7436897307825</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>822.8075068028757</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D28" t="n">
-        <v>672.6908673905398</v>
+        <v>414.4022433768873</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>414.4022433768873</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>247.2061440917674</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>1394.184733704552</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>1173.392154561022</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6549,19 +6549,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188009</v>
+        <v>945.4026036630038</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>776.4664207350969</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>626.3497813227611</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>478.4366877403679</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>331.5467402424576</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>164.3506409573376</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>164.3506409573376</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490406</v>
+        <v>945.4026036630038</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.6725264685176</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406107</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282751</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458821</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,22 +6962,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832227</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>634.9279362553158</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>484.81129684298</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.7822433412</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>803.8641191832227</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>549.614540988804</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>549.614540988804</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.61519755786</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2345.568987476151</v>
+        <v>2262.80108142074</v>
       </c>
       <c r="T40" t="n">
-        <v>2125.967522499092</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="U40" t="n">
-        <v>1836.89229584329</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.207807637403</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327663</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048594</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925237</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101306</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122202</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>149.8982754122202</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>701.4712640439267</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C46" t="n">
-        <v>532.5350811160198</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D46" t="n">
-        <v>382.418441703684</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>382.418441703684</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1694.355052328322</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1439.670564122435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1150.253394085474</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X46" t="n">
-        <v>922.2638431874568</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>701.4712640439267</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>168.7434581780636</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013354</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.9556134883062555</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>255.8421700460937</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.6594880232405</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>112.5046456673536</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.88640582362858</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>157.6696338183982</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.29152613728959</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.29152613729008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.88696578548024</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.2267460612239</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>68.49784254931321</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>35.40333084624504</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>45.37941682720947</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>105.8542358274164</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012376</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>11.43719818829345</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610396</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>226.0671788815094</v>
+        <v>107.2784330767824</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>80.64613085857688</v>
+        <v>65.08115057384148</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>84.7739166056181</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>34.97276993489159</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>5.909506488879351</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>979173.7201719661</v>
+        <v>979173.720171966</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873360.2125636344</v>
+        <v>873360.2125636353</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159053</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.5822159053</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159053</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159053</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876633</v>
+        <v>423807.2415876642</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918678</v>
+        <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="I2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="J2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26344,7 +26344,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217536</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357062</v>
+        <v>325187.1190357086</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051381</v>
+        <v>166521.3471051361</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557898</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456826</v>
+        <v>84929.5943445688</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848917</v>
+        <v>43782.40655848859</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="C4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="D4" t="n">
         <v>134318.0002618638</v>
-      </c>
-      <c r="C4" t="n">
-        <v>134318.0002618638</v>
-      </c>
-      <c r="D4" t="n">
-        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8018.191469425932</v>
@@ -26473,10 +26473,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214711</v>
+        <v>86093.72216214729</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869908.5386056649</v>
+        <v>-869908.5386056651</v>
       </c>
       <c r="C6" t="n">
+        <v>244843.2449702547</v>
+      </c>
+      <c r="D6" t="n">
         <v>244843.2449702545</v>
       </c>
-      <c r="D6" t="n">
-        <v>244843.2449702541</v>
-      </c>
       <c r="E6" t="n">
-        <v>4508.208920384102</v>
+        <v>4298.244676537578</v>
       </c>
       <c r="F6" t="n">
-        <v>186766.6132673846</v>
+        <v>186720.7082718209</v>
       </c>
       <c r="G6" t="n">
-        <v>343702.2163355357</v>
+        <v>343667.4784101</v>
       </c>
       <c r="H6" t="n">
-        <v>354869.4525711145</v>
+        <v>354834.7146456789</v>
       </c>
       <c r="I6" t="n">
-        <v>354869.4525711145</v>
+        <v>354834.7146456791</v>
       </c>
       <c r="J6" t="n">
-        <v>187264.2747611321</v>
+        <v>187229.5368356963</v>
       </c>
       <c r="K6" t="n">
-        <v>354869.4525711146</v>
+        <v>354834.7146456789</v>
       </c>
       <c r="L6" t="n">
-        <v>354869.4525711146</v>
+        <v>354834.7146456789</v>
       </c>
       <c r="M6" t="n">
-        <v>269939.8582265463</v>
+        <v>269905.1203011101</v>
       </c>
       <c r="N6" t="n">
-        <v>311087.0460126253</v>
+        <v>311052.3080871902</v>
       </c>
       <c r="O6" t="n">
-        <v>351846.1545938901</v>
+        <v>351811.4166684542</v>
       </c>
       <c r="P6" t="n">
-        <v>354869.4525711146</v>
+        <v>354834.7146456789</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494558</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,16 +26793,16 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808648</v>
+        <v>981.3883278086502</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770163</v>
+        <v>278.1053753770185</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218281</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.803495708609</v>
+        <v>340.8034957086114</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173568</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086093</v>
+        <v>340.8034957086114</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173566</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.803495708609</v>
+        <v>340.8034957086114</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173568</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>183.7907424631441</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>163.5256698052805</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>153.5253779792052</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>262.5773610745051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>173.0313165627906</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>24.16590479484384</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>182.6244433676746</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>41.19755241469724</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>144.8145356984022</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>41.36046777034738</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.325851919376</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28062,16 +28062,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>135.3825928590202</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.255632527897967e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-2.074784788419493e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.847314536630499e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.607692654649116e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.920526297971251e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.631974555493798e-12</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31674,22 +31674,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31698,22 +31698,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485656</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508998</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380259</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307185</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726065</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216983</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857437</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898399</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294419</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615146</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895595</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356986</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951045</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475347</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188524</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969426</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191525</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.7692132059649</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783045</v>
       </c>
       <c r="K12" t="n">
-        <v>189.2837238893268</v>
+        <v>360.352087174376</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.1178216256424</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>660.6327957845339</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147149</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431818</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.820787407185</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697593</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780659</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190413</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236088</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737177</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691799</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836914</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619745</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.980861550918</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263714</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973099</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050064</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.37234817619</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916782</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570623</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929617</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826917</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.119229862376514</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>187.1630768341347</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
@@ -32090,13 +32090,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>211.0222436375122</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,7 +33269,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>559.9405577709376</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.83623123219</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>298.6359741261565</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091748</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.587496243485</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>591.2668520422169</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040322</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276259</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.236839251711</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.318058158471</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932489</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077551</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062451</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151099</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156644</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116378</v>
       </c>
       <c r="K12" t="n">
-        <v>51.44228491496783</v>
+        <v>222.5106482000171</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457682</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625155</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.7760680313817</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987373</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701861</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360916</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112341</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.230629788212</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765385</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.549444619046</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410835</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998383</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>49.32163785977574</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
@@ -35738,13 +35738,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
